--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,91 +66,91 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-0.07014053966344347y</t>
-  </si>
-  <si>
-    <t>-0.31785114269372455</t>
+    <t>1.0622714025740718y</t>
+  </si>
+  <si>
+    <t>4.647036992919102</t>
+  </si>
+  <si>
+    <t>J_0_L0_v</t>
+  </si>
+  <si>
+    <t>0.33468162538227564</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0.9798094181653134</t>
+  </si>
+  <si>
+    <t>-3 - x</t>
+  </si>
+  <si>
+    <t>-7.184892416399492</t>
+  </si>
+  <si>
+    <t>0.9092567913461869</t>
+  </si>
+  <si>
+    <t>0.6093440204568766</t>
+  </si>
+  <si>
+    <t>-12 + x + 0.1552559622878642y</t>
+  </si>
+  <si>
+    <t>-7.135921267961507</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9216433883592792</t>
-  </si>
-  <si>
-    <t>0.7126848815194647</t>
-  </si>
-  <si>
-    <t>0.08070952673937302</t>
-  </si>
-  <si>
-    <t>-3 - x + 0.07014053966344347y</t>
-  </si>
-  <si>
-    <t>-7.372187149501767</t>
-  </si>
-  <si>
-    <t>0.23190969850965648</t>
-  </si>
-  <si>
-    <t>0.9560560242650418</t>
-  </si>
-  <si>
-    <t>0.0640786873073884</t>
-  </si>
-  <si>
-    <t>-12 + x + 0.14028107932688694y</t>
-  </si>
-  <si>
-    <t>-6.67425942241706</t>
-  </si>
-  <si>
-    <t>0.9637500450473929</t>
-  </si>
-  <si>
-    <t>0.3659405141290256</t>
-  </si>
-  <si>
-    <t>0.14328598237623813</t>
-  </si>
-  <si>
-    <t>-12 + 4x - 0.07014053966344347y</t>
-  </si>
-  <si>
-    <t>6.442302026088241</t>
-  </si>
-  <si>
-    <t>0.9062712352416179</t>
-  </si>
-  <si>
-    <t>0.9731418765912537</t>
-  </si>
-  <si>
-    <t>0.2920278369596522</t>
+    <t>0.7906785535517057</t>
+  </si>
+  <si>
+    <t>0.8364628831988038</t>
+  </si>
+  <si>
+    <t>-12 + 4x + 0.34214137273234835y</t>
+  </si>
+  <si>
+    <t>6.236309210729873</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>0.5618257705012442</t>
+  </si>
+  <si>
+    <t>0.1552176932798911</t>
+  </si>
+  <si>
+    <t>0.31558162870132267</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>4.690038292195491</t>
-  </si>
-  <si>
-    <t>4.531632408573915</t>
+    <t>4.184892416399492</t>
+  </si>
+  <si>
+    <t>4.374623078112156</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.0232512497691708</t>
+    <t>-1.6705041196583514</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-2.302451996228999</t>
-  </si>
-  <si>
-    <t>2.9998519828110672</t>
+    <t>0.15201036413850844</t>
+  </si>
+  <si>
+    <t>2.817027755499758</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -624,18 +624,18 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -644,18 +644,18 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9298594603365565</v>
+        <v>0.9223720188560679</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,91 +66,88 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>1.0622714025740718y</t>
-  </si>
-  <si>
-    <t>4.647036992919102</t>
+    <t>0</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.33468162538227564</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0.9798094181653134</t>
-  </si>
-  <si>
-    <t>-3 - x</t>
-  </si>
-  <si>
-    <t>-7.184892416399492</t>
-  </si>
-  <si>
-    <t>0.9092567913461869</t>
-  </si>
-  <si>
-    <t>0.6093440204568766</t>
-  </si>
-  <si>
-    <t>-12 + x + 0.1552559622878642y</t>
-  </si>
-  <si>
-    <t>-7.135921267961507</t>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>-24.29684212488997 - x + 3.776005232905586y</t>
+  </si>
+  <si>
+    <t>21.29684212488997</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>-0.4547970843733591 + x - 0.7012674429349861y</t>
+  </si>
+  <si>
+    <t>-11.545202915626641</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.7906785535517057</t>
-  </si>
-  <si>
-    <t>0.8364628831988038</t>
-  </si>
-  <si>
-    <t>-12 + 4x + 0.34214137273234835y</t>
-  </si>
-  <si>
-    <t>6.236309210729873</t>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>-50.53871002686802 + 4x + 3.1836906865674557y</t>
+  </si>
+  <si>
+    <t>38.02871002686802</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.5618257705012442</t>
-  </si>
-  <si>
-    <t>0.1552176932798911</t>
-  </si>
-  <si>
-    <t>0.31558162870132267</t>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>8.100000000000001</t>
+  </si>
+  <si>
+    <t>4.3</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>4.184892416399492</t>
-  </si>
-  <si>
-    <t>4.374623078112156</t>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>8.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.6705041196583514</t>
+    <t>-3.849598344825246</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>0.15201036413850844</t>
-  </si>
-  <si>
-    <t>2.817027755499758</t>
+    <t>-38.7</t>
+  </si>
+  <si>
+    <t>-22.895696470721017</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -592,79 +589,79 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +679,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -690,10 +687,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -711,12 +708,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -734,17 +731,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -762,12 +759,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9223720188560679</v>
+        <v>1.350633721467493</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -72,82 +72,79 @@
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>-24.29684212488997 - x + 3.776005232905586y</t>
-  </si>
-  <si>
-    <t>21.29684212488997</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>1.7000000000000002</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>-0.4547970843733591 + x - 0.7012674429349861y</t>
-  </si>
-  <si>
-    <t>-11.545202915626641</t>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>-10.983333333333333 - x + 2.7450980392156863y</t>
+  </si>
+  <si>
+    <t>7.9833333333333325</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>2.8000000000000003</t>
+  </si>
+  <si>
+    <t>-5.112 + x - 0.040000000000000036y</t>
+  </si>
+  <si>
+    <t>-6.888</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>-50.53871002686802 + 4x + 3.1836906865674557y</t>
-  </si>
-  <si>
-    <t>38.02871002686802</t>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>-68.9 + 4x + 7.941176470588237y</t>
+  </si>
+  <si>
+    <t>56.65000000000001</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.32</t>
+    <t>0.07</t>
   </si>
   <si>
     <t>8.100000000000001</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>8.05</t>
+    <t>5.35</t>
+  </si>
+  <si>
+    <t>5.95</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-3.849598344825246</t>
+    <t>-2.7637254901960784</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-38.7</t>
-  </si>
-  <si>
-    <t>-22.895696470721017</t>
+    <t>0.19999999999999996</t>
+  </si>
+  <si>
+    <t>3.032</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -618,30 +615,30 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -658,10 +655,10 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
         <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +676,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -687,10 +684,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -708,12 +705,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -731,17 +728,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -759,12 +756,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.350633721467493</v>
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.2/Experimentos_Generador/ex9.1.2(Linear)__M_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,85 +66,88 @@
     <t>Gamma_value</t>
   </si>
   <si>
+    <t>-11.270370370370367 + 1.259259259259259y</t>
+  </si>
+  <si>
+    <t>11.270370370370367</t>
+  </si>
+  <si>
+    <t>J_0_L0_v</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>J_0_L0_v</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>-10.983333333333333 - x + 2.7450980392156863y</t>
-  </si>
-  <si>
-    <t>7.9833333333333325</t>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>-0.9555555555555548 - x + 0.8888888888888888y</t>
+  </si>
+  <si>
+    <t>-2.044444444444445</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>-7.0 + x</t>
+  </si>
+  <si>
+    <t>-5.0</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
   </si>
   <si>
     <t>0.44</t>
   </si>
   <si>
-    <t>2.8000000000000003</t>
-  </si>
-  <si>
-    <t>-5.112 + x - 0.040000000000000036y</t>
-  </si>
-  <si>
-    <t>-6.888</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>-68.9 + 4x + 7.941176470588237y</t>
-  </si>
-  <si>
-    <t>56.65000000000001</t>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>-50.64777777777778 + 4x + 2.4444444444444446y</t>
+  </si>
+  <si>
+    <t>37.87777777777778</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>8.100000000000001</t>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>5.95</t>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.95</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-2.7637254901960784</t>
+    <t>-4.514074074074074</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>0.19999999999999996</t>
-  </si>
-  <si>
-    <t>3.032</t>
+    <t>-5.1</t>
+  </si>
+  <si>
+    <t>3.0</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -586,79 +589,79 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +679,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -684,10 +687,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -705,12 +708,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -728,17 +731,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -756,12 +759,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>
